--- a/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy-analysis/MIP.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy-analysis/MIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>Overlap Surface Area</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap / Green Surface Area</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap / Red Surface Area</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +480,12 @@
       <c r="D2" t="n">
         <v>1424</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.5493827160493827</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04137009383806398</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +502,12 @@
       <c r="D3" t="n">
         <v>1526</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.6637668551544149</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05886891443561454</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +524,12 @@
       <c r="D4" t="n">
         <v>638</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.7532467532467533</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02303997688779748</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +546,12 @@
       <c r="D5" t="n">
         <v>518</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01287372319009867</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +568,12 @@
       <c r="D6" t="n">
         <v>1278</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.5952491849091756</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0494467228971601</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,6 +590,12 @@
       <c r="D7" t="n">
         <v>1691</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.7381056307289393</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0736530336687138</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -566,6 +612,12 @@
       <c r="D8" t="n">
         <v>1148</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.7547666009204471</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03981548919640689</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,6 +634,12 @@
       <c r="D9" t="n">
         <v>1736</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.7678018575851393</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.06208869814020029</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -598,6 +656,12 @@
       <c r="D10" t="n">
         <v>1809</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.450560398505604</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05977596404850808</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -614,6 +678,12 @@
       <c r="D11" t="n">
         <v>3357</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.4012670332297394</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1057689278175116</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -630,6 +700,12 @@
       <c r="D12" t="n">
         <v>3458</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.5220410628019324</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1213120505174531</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -646,6 +722,12 @@
       <c r="D13" t="n">
         <v>1498</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.405852072609049</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.05479351841691357</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -662,6 +744,12 @@
       <c r="D14" t="n">
         <v>859</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.359715242881072</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.03389897395422257</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -678,6 +766,12 @@
       <c r="D15" t="n">
         <v>993</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.4091470951792336</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04143196895731631</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -694,6 +788,12 @@
       <c r="D16" t="n">
         <v>1491</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.4660831509846827</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.06293794850147742</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -710,6 +810,12 @@
       <c r="D17" t="n">
         <v>3080</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.5010574263868554</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.094620748978526</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +832,12 @@
       <c r="D18" t="n">
         <v>2487</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.425419089976052</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.09510879957168535</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -742,6 +854,12 @@
       <c r="D19" t="n">
         <v>1668</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.3171102661596958</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.07715435496553957</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +876,12 @@
       <c r="D20" t="n">
         <v>1261</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.3147778332501248</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.06013065662104811</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -774,6 +898,12 @@
       <c r="D21" t="n">
         <v>5199</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.5376421923474664</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1381683852450303</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -790,6 +920,12 @@
       <c r="D22" t="n">
         <v>2105</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.243803567292101</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.08704821768257381</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -806,6 +942,12 @@
       <c r="D23" t="n">
         <v>3136</v>
       </c>
+      <c r="E23" t="n">
+        <v>0.3394674171898679</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1419197176087252</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -822,6 +964,12 @@
       <c r="D24" t="n">
         <v>1963</v>
       </c>
+      <c r="E24" t="n">
+        <v>0.39979633401222</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.07105367937162921</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -838,6 +986,12 @@
       <c r="D25" t="n">
         <v>2962</v>
       </c>
+      <c r="E25" t="n">
+        <v>0.4101356964829687</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0969177409855376</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -854,6 +1008,12 @@
       <c r="D26" t="n">
         <v>2975</v>
       </c>
+      <c r="E26" t="n">
+        <v>0.3077798468859921</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1288771443424017</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -870,6 +1030,12 @@
       <c r="D27" t="n">
         <v>1772</v>
       </c>
+      <c r="E27" t="n">
+        <v>0.2900638402357178</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0636082992318185</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -886,6 +1052,12 @@
       <c r="D28" t="n">
         <v>3426</v>
       </c>
+      <c r="E28" t="n">
+        <v>0.4225977550265203</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1173086800205444</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -902,6 +1074,12 @@
       <c r="D29" t="n">
         <v>2381</v>
       </c>
+      <c r="E29" t="n">
+        <v>0.3287765810549572</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.09100290475462468</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -918,6 +1096,12 @@
       <c r="D30" t="n">
         <v>2307</v>
       </c>
+      <c r="E30" t="n">
+        <v>0.3190871369294606</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.09642230209813592</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -934,6 +1118,12 @@
       <c r="D31" t="n">
         <v>2795</v>
       </c>
+      <c r="E31" t="n">
+        <v>0.3537974683544304</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1214319850545249</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -950,6 +1140,12 @@
       <c r="D32" t="n">
         <v>2013</v>
       </c>
+      <c r="E32" t="n">
+        <v>0.2378870243441267</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.08507311300819879</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -966,6 +1162,12 @@
       <c r="D33" t="n">
         <v>2233</v>
       </c>
+      <c r="E33" t="n">
+        <v>0.2946298984034833</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1066838660360231</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -982,6 +1184,12 @@
       <c r="D34" t="n">
         <v>376</v>
       </c>
+      <c r="E34" t="n">
+        <v>0.2540540540540541</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01673416707463617</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -998,6 +1206,12 @@
       <c r="D35" t="n">
         <v>1847</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.6156666666666667</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.06569680586184819</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1014,6 +1228,12 @@
       <c r="D36" t="n">
         <v>581</v>
       </c>
+      <c r="E36" t="n">
+        <v>0.1858010873041254</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02460404844583721</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1030,6 +1250,12 @@
       <c r="D37" t="n">
         <v>178</v>
       </c>
+      <c r="E37" t="n">
+        <v>0.2742681047765794</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.009741148142067531</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1046,6 +1272,12 @@
       <c r="D38" t="n">
         <v>1233</v>
       </c>
+      <c r="E38" t="n">
+        <v>0.4071994715984148</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.04508886125941637</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1062,6 +1294,12 @@
       <c r="D39" t="n">
         <v>700</v>
       </c>
+      <c r="E39" t="n">
+        <v>0.3856749311294766</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02909514111143439</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1078,6 +1316,12 @@
       <c r="D40" t="n">
         <v>886</v>
       </c>
+      <c r="E40" t="n">
+        <v>0.2129807692307692</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.03492176106578377</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1093,6 +1337,12 @@
       </c>
       <c r="D41" t="n">
         <v>274</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2470694319206492</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01300982859313423</v>
       </c>
     </row>
   </sheetData>
